--- a/Durchläufe/NRI/Doppelter NRI hohe grid resolution/Nachbearbeitung_23_03_14_00_16.xlsx
+++ b/Durchläufe/NRI/Doppelter NRI hohe grid resolution/Nachbearbeitung_23_03_14_00_16.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\Durchläufe\NRIx2_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\Durchläufe\NRI\Doppelter NRI hohe grid resolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A86F3D-8A5C-4F32-9D79-F0DA33294DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379202C7-2982-41A3-897D-76956C745EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -9253,8 +9253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE2E520-FB4E-4767-8374-544DD063C850}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10195,8 +10195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BB3847-E066-4261-9D32-B0A673E2AAB2}">
   <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
